--- a/TIMES-DE/SuppXLS/Scen_TRA_TEST_Maxshare_Constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_TRA_TEST_Maxshare_Constraint.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonathan/Documents/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67AE6429-F3AB-6E41-9B62-2DACD914DFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB4A90D-3785-8B47-98CB-576D351B1EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{1734E0BC-DC08-FE4A-8880-AAA560F2C40D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1734E0BC-DC08-FE4A-8880-AAA560F2C40D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>Car Minimum distributions</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>~UC_Sets: T_E:</t>
-  </si>
-  <si>
-    <t>~UC_T: UC_COMPRD</t>
   </si>
   <si>
     <t>UC_N</t>
@@ -525,7 +522,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,70 +553,65 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="I8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>-0.1</v>
@@ -637,21 +629,21 @@
         <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <f>H9+1</f>
@@ -847,60 +839,60 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="G48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L48" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="M48" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
         <v>17</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>18</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>19</v>
       </c>
-      <c r="F49" t="s">
-        <v>20</v>
-      </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H49">
         <v>-0.33</v>
@@ -915,21 +907,21 @@
         <v>4</v>
       </c>
       <c r="M49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H50">
         <v>0.66999999999999993</v>
